--- a/宏观经济/eta/中国10年期国债收益率Trend_F0.2_月度数据.xlsx
+++ b/宏观经济/eta/中国10年期国债收益率Trend_F0.2_月度数据.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
